--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -61,21 +61,21 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -85,180 +85,183 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pop</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
+    <t>every</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>big</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>also</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>job</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -266,12 +269,6 @@
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -635,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2323232323232323</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9354838709677419</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2248062015503876</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +851,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +877,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +903,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.846749226006192</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L8">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M8">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +929,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7954545454545454</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +955,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7662337662337663</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L10">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1010,13 +1007,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6883116883116883</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L12">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M12">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1028,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1036,13 +1033,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6508474576271186</v>
+        <v>0.6711864406779661</v>
       </c>
       <c r="L13">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M13">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1054,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1062,13 +1059,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6323529411764706</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1088,13 +1085,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6285714285714286</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1106,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1114,13 +1111,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6285714285714286</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1132,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1140,13 +1137,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6197183098591549</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1158,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1166,13 +1163,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6187800963081862</v>
+        <v>0.6252006420545746</v>
       </c>
       <c r="L18">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="M18">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1184,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1195,10 +1192,10 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1210,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1218,13 +1215,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5964912280701754</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1236,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1244,13 +1241,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.589041095890411</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1262,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1270,13 +1267,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1288,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1296,13 +1293,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5771428571428572</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L23">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1314,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1322,13 +1319,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1340,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1348,13 +1345,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5641025641025641</v>
+        <v>0.578125</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1374,13 +1371,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5625</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1392,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1400,13 +1397,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5490196078431373</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1418,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1426,13 +1423,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.546875</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1444,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1452,13 +1449,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5396825396825397</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1470,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1478,13 +1475,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5128205128205128</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1496,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1504,13 +1501,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4850299401197605</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L31">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1522,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1530,13 +1527,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4807692307692308</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L32">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1548,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1556,13 +1553,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4769230769230769</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1574,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1608,13 +1605,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.44</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1626,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1634,13 +1631,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4320987654320987</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1652,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1660,13 +1657,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.4210526315789473</v>
+        <v>0.4</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1678,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1686,13 +1683,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4193548387096774</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1704,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1712,13 +1709,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4156626506024096</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L39">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1730,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1738,13 +1735,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.4096385542168675</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1756,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1764,13 +1761,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3968253968253968</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1782,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1790,13 +1787,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3684210526315789</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1808,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1816,13 +1813,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3382352941176471</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="L43">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M43">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1834,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1842,13 +1839,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3268482490272374</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L44">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M44">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1860,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1868,13 +1865,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3082706766917293</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1886,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1920,13 +1917,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.2972972972972973</v>
+        <v>0.2904109589041096</v>
       </c>
       <c r="L47">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1938,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>78</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1946,13 +1943,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.263013698630137</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="L48">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1964,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>538</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1972,13 +1969,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2592592592592592</v>
+        <v>0.25</v>
       </c>
       <c r="L49">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1990,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1998,13 +1995,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2574257425742574</v>
+        <v>0.2357373519913886</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2016,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>75</v>
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2024,13 +2021,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2535885167464115</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L51">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2042,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2050,13 +2047,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2285714285714286</v>
+        <v>0.2296650717703349</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2068,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>81</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2076,13 +2073,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2251655629139073</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="L53">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2094,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2102,13 +2099,13 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2228202368137782</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L54">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2120,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>722</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2128,13 +2125,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2072072072072072</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2146,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2154,13 +2151,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.2018348623853211</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2172,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2180,13 +2177,13 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.174496644295302</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2198,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>123</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2206,13 +2203,13 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1724137931034483</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="L58">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="M58">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2224,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>264</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2232,13 +2229,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1708609271523179</v>
+        <v>0.1629139072847682</v>
       </c>
       <c r="L59">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M59">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2250,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2258,13 +2255,13 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1611253196930946</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L60">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="M60">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2276,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>656</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2284,13 +2281,13 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.145945945945946</v>
+        <v>0.1378378378378378</v>
       </c>
       <c r="L61">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M61">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N61">
         <v>0.98</v>
@@ -2302,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2310,13 +2307,13 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1333333333333333</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2328,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>143</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2336,13 +2333,13 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1305841924398626</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L63">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2354,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>253</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2362,25 +2359,25 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1287128712871287</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L64">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M64">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N64">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>176</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2388,13 +2385,13 @@
         <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1259259259259259</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L65">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2406,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2414,13 +2411,13 @@
         <v>75</v>
       </c>
       <c r="K66">
-        <v>0.1192214111922141</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L66">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2432,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>362</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2440,13 +2437,13 @@
         <v>76</v>
       </c>
       <c r="K67">
-        <v>0.1107011070110701</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L67">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2458,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2466,13 +2463,13 @@
         <v>77</v>
       </c>
       <c r="K68">
-        <v>0.1092436974789916</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2484,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>212</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2492,13 +2489,13 @@
         <v>78</v>
       </c>
       <c r="K69">
-        <v>0.08409090909090909</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L69">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M69">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2510,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2518,13 +2515,13 @@
         <v>79</v>
       </c>
       <c r="K70">
-        <v>0.07875894988066826</v>
+        <v>0.09225092250922509</v>
       </c>
       <c r="L70">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2536,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>386</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2544,13 +2541,13 @@
         <v>80</v>
       </c>
       <c r="K71">
-        <v>0.07675438596491228</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L71">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2562,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>421</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2570,13 +2567,13 @@
         <v>81</v>
       </c>
       <c r="K72">
-        <v>0.0659025787965616</v>
+        <v>0.081145584725537</v>
       </c>
       <c r="L72">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M72">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2588,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>652</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2596,13 +2593,13 @@
         <v>82</v>
       </c>
       <c r="K73">
-        <v>0.06010928961748634</v>
+        <v>0.06876790830945559</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2614,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>344</v>
+        <v>650</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2622,25 +2619,25 @@
         <v>83</v>
       </c>
       <c r="K74">
-        <v>0.05882352941176471</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="L74">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M74">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="N74">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1008</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2648,13 +2645,13 @@
         <v>84</v>
       </c>
       <c r="K75">
-        <v>0.05583756345177665</v>
+        <v>0.05597014925373135</v>
       </c>
       <c r="L75">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M75">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2666,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>372</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2674,13 +2671,13 @@
         <v>85</v>
       </c>
       <c r="K76">
-        <v>0.05350553505535055</v>
+        <v>0.02938634399308557</v>
       </c>
       <c r="L76">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M76">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2692,33 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
-      <c r="J77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K77">
-        <v>0.01991341991341991</v>
-      </c>
-      <c r="L77">
-        <v>23</v>
-      </c>
-      <c r="M77">
-        <v>25</v>
-      </c>
-      <c r="N77">
-        <v>0.92</v>
-      </c>
-      <c r="O77">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
